--- a/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
+++ b/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
@@ -474,40 +474,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>886222</v>
+        <v>946389</v>
       </c>
       <c r="C2">
-        <v>1038253</v>
+        <v>1108524</v>
       </c>
       <c r="D2">
-        <v>1259156</v>
+        <v>1274655</v>
       </c>
       <c r="E2">
-        <v>1068804</v>
+        <v>1148300</v>
       </c>
       <c r="F2">
-        <v>1277331</v>
+        <v>1281273</v>
       </c>
       <c r="G2">
-        <v>1384960</v>
+        <v>1426629</v>
       </c>
       <c r="H2">
-        <v>1338238</v>
+        <v>1259572</v>
       </c>
       <c r="I2">
-        <v>1463787</v>
+        <v>1451876</v>
       </c>
       <c r="J2">
-        <v>1756633</v>
+        <v>1835393</v>
       </c>
       <c r="K2">
-        <v>1142073</v>
+        <v>1109760</v>
       </c>
       <c r="L2">
-        <v>1193259</v>
+        <v>1218915</v>
       </c>
       <c r="M2">
-        <v>1465607</v>
+        <v>1470637</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -524,7 +524,7 @@
         <v>1910000</v>
       </c>
       <c r="E3">
-        <v>1393580</v>
+        <v>1420000</v>
       </c>
       <c r="F3">
         <v>1600000</v>
@@ -533,7 +533,7 @@
         <v>1950000</v>
       </c>
       <c r="H3">
-        <v>1470000</v>
+        <v>1490000</v>
       </c>
       <c r="I3">
         <v>1758930</v>
@@ -565,7 +565,7 @@
         <v>555000</v>
       </c>
       <c r="E4">
-        <v>568990</v>
+        <v>552490</v>
       </c>
       <c r="F4">
         <v>599710</v>
@@ -574,16 +574,16 @@
         <v>799900</v>
       </c>
       <c r="H4">
-        <v>816500</v>
+        <v>571300</v>
       </c>
       <c r="I4">
         <v>894400</v>
       </c>
       <c r="J4">
-        <v>1191920</v>
+        <v>1548350</v>
       </c>
       <c r="K4">
-        <v>704890</v>
+        <v>605760</v>
       </c>
       <c r="L4">
         <v>798060</v>
@@ -597,25 +597,25 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>39</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>38</v>
@@ -624,7 +624,7 @@
         <v>39</v>
       </c>
       <c r="K5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>40</v>

--- a/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
+++ b/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
@@ -474,34 +474,34 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>946389</v>
+        <v>882247</v>
       </c>
       <c r="C2">
-        <v>1108524</v>
+        <v>1094713</v>
       </c>
       <c r="D2">
         <v>1274655</v>
       </c>
       <c r="E2">
-        <v>1148300</v>
+        <v>1115023</v>
       </c>
       <c r="F2">
-        <v>1281273</v>
+        <v>1262040</v>
       </c>
       <c r="G2">
-        <v>1426629</v>
+        <v>1424372</v>
       </c>
       <c r="H2">
-        <v>1259572</v>
+        <v>1265256</v>
       </c>
       <c r="I2">
-        <v>1451876</v>
+        <v>1449726</v>
       </c>
       <c r="J2">
-        <v>1835393</v>
+        <v>1836614</v>
       </c>
       <c r="K2">
-        <v>1109760</v>
+        <v>1102991</v>
       </c>
       <c r="L2">
         <v>1218915</v>
@@ -518,13 +518,13 @@
         <v>1500000</v>
       </c>
       <c r="C3">
-        <v>1530000</v>
+        <v>1500000</v>
       </c>
       <c r="D3">
         <v>1910000</v>
       </c>
       <c r="E3">
-        <v>1420000</v>
+        <v>1363200</v>
       </c>
       <c r="F3">
         <v>1600000</v>
@@ -621,7 +621,7 @@
         <v>38</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>39</v>

--- a/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
+++ b/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
@@ -474,40 +474,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>882247</v>
+        <v>872611</v>
       </c>
       <c r="C2">
-        <v>1094713</v>
+        <v>1093860</v>
       </c>
       <c r="D2">
-        <v>1274655</v>
+        <v>1273112</v>
       </c>
       <c r="E2">
-        <v>1115023</v>
+        <v>1108489</v>
       </c>
       <c r="F2">
-        <v>1262040</v>
+        <v>1254901</v>
       </c>
       <c r="G2">
-        <v>1424372</v>
+        <v>1426295</v>
       </c>
       <c r="H2">
-        <v>1265256</v>
+        <v>1257072</v>
       </c>
       <c r="I2">
         <v>1449726</v>
       </c>
       <c r="J2">
-        <v>1836614</v>
+        <v>1832115</v>
       </c>
       <c r="K2">
-        <v>1102991</v>
+        <v>1100337</v>
       </c>
       <c r="L2">
-        <v>1218915</v>
+        <v>1216327</v>
       </c>
       <c r="M2">
-        <v>1470637</v>
+        <v>1463450</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -621,7 +621,7 @@
         <v>38</v>
       </c>
       <c r="J5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>39</v>

--- a/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
+++ b/codeclass/2021.09.14/아이폰_모델별_가격.xlsx
@@ -474,40 +474,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>872611</v>
+        <v>828562</v>
       </c>
       <c r="C2">
-        <v>1093860</v>
+        <v>1106216</v>
       </c>
       <c r="D2">
-        <v>1273112</v>
+        <v>1300857</v>
       </c>
       <c r="E2">
-        <v>1108489</v>
+        <v>1163326</v>
       </c>
       <c r="F2">
-        <v>1254901</v>
+        <v>1284221</v>
       </c>
       <c r="G2">
-        <v>1426295</v>
+        <v>1410882</v>
       </c>
       <c r="H2">
-        <v>1257072</v>
+        <v>1255967</v>
       </c>
       <c r="I2">
-        <v>1449726</v>
+        <v>1508692</v>
       </c>
       <c r="J2">
-        <v>1832115</v>
+        <v>1822809</v>
       </c>
       <c r="K2">
-        <v>1100337</v>
+        <v>1093226</v>
       </c>
       <c r="L2">
-        <v>1216327</v>
+        <v>1212900</v>
       </c>
       <c r="M2">
-        <v>1463450</v>
+        <v>1478656</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -515,31 +515,31 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1500000</v>
+        <v>1330000</v>
       </c>
       <c r="C3">
-        <v>1500000</v>
+        <v>1530000</v>
       </c>
       <c r="D3">
         <v>1910000</v>
       </c>
       <c r="E3">
-        <v>1363200</v>
+        <v>1420000</v>
       </c>
       <c r="F3">
-        <v>1600000</v>
+        <v>1740000</v>
       </c>
       <c r="G3">
         <v>1950000</v>
       </c>
       <c r="H3">
-        <v>1490000</v>
+        <v>1470000</v>
       </c>
       <c r="I3">
-        <v>1758930</v>
+        <v>1999900</v>
       </c>
       <c r="J3">
-        <v>1990000</v>
+        <v>1997000</v>
       </c>
       <c r="K3">
         <v>1474000</v>
@@ -556,19 +556,19 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>582000</v>
+        <v>559000</v>
       </c>
       <c r="C4">
         <v>529000</v>
       </c>
       <c r="D4">
-        <v>555000</v>
+        <v>672000</v>
       </c>
       <c r="E4">
-        <v>552490</v>
+        <v>875990</v>
       </c>
       <c r="F4">
-        <v>599710</v>
+        <v>516300</v>
       </c>
       <c r="G4">
         <v>799900</v>
@@ -577,10 +577,10 @@
         <v>571300</v>
       </c>
       <c r="I4">
-        <v>894400</v>
+        <v>835300</v>
       </c>
       <c r="J4">
-        <v>1548350</v>
+        <v>1409000</v>
       </c>
       <c r="K4">
         <v>605760</v>
@@ -589,7 +589,7 @@
         <v>798060</v>
       </c>
       <c r="M4">
-        <v>1090400</v>
+        <v>1180000</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -597,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>37</v>
@@ -606,7 +606,7 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -627,10 +627,10 @@
         <v>39</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
